--- a/src/MASTER.xlsx
+++ b/src/MASTER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="13">
   <si>
     <t>Date_Time</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
+  </si>
+  <si>
+    <t>Case Assignment Undone @ 11:48:04 04-07-2023</t>
   </si>
   <si>
     <t>MIKE</t>
@@ -412,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -448,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -459,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -503,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -525,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -536,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -547,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -558,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -569,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -580,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -591,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -602,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -613,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -624,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -635,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -646,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -657,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -668,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -679,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -690,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -701,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -712,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -723,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -734,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -745,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -756,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -767,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -778,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -789,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -800,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -811,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -822,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -833,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -844,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -855,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -866,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -877,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -888,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -899,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -910,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -921,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -932,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -943,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -954,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -965,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -976,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -987,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -998,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1009,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1020,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1031,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1042,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1053,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1064,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1075,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1086,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1097,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1108,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1119,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1130,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1141,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1152,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1163,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1174,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1185,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1196,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1207,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1218,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1229,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1240,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1251,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1262,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1273,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1284,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1295,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1306,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1317,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1328,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1339,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1350,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1361,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1372,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1383,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1394,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1405,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1416,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1427,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1438,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1449,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1460,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1471,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1482,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1493,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1504,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1515,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1526,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1537,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1548,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1559,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1570,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1581,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1592,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1603,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1614,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1625,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1636,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1647,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1658,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1669,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1680,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1691,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1702,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1713,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1724,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1735,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1746,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1757,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1768,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1779,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1790,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1801,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1812,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1823,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1834,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1845,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1856,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1867,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1878,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1889,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1900,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1911,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1922,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1933,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1944,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1955,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1966,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1977,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1988,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1999,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2010,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2021,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2032,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2043,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2054,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2065,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2076,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2087,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2098,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2109,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2120,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2131,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2142,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2153,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2164,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2175,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2186,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2197,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2208,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2219,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2230,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2241,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2252,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2263,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2274,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2285,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2296,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2307,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2318,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2329,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2340,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2351,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2362,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2373,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2384,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2395,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2406,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2417,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2428,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2439,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2450,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2461,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2472,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2483,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2494,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2505,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2516,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2527,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2538,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2549,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2560,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2571,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2582,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2593,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2604,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2615,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2626,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2637,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2648,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2659,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2670,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2681,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2692,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2703,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2714,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2725,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2736,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2747,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2758,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2769,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2780,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2791,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2802,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2813,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2824,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2835,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2846,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2857,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2868,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2879,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2890,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2901,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2912,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2923,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2934,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2945,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2956,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2967,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2978,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2989,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3000,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3011,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3022,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3033,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3044,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3055,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3066,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3077,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3088,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3099,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3110,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3121,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3132,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3143,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3154,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3165,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3176,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3187,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3198,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3209,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3220,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3231,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3242,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3253,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3264,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3275,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3286,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3297,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3308,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3319,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3330,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3341,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3352,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3374,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3385,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3396,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3407,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3418,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3429,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3440,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3451,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3462,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3473,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3484,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3495,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3506,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3517,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3528,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3539,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3550,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3561,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3572,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3583,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3594,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3605,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3616,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3627,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3638,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3649,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3660,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3671,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3682,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3693,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3704,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3715,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3726,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3737,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3748,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3759,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3770,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3781,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3792,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3803,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3814,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3825,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3836,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3847,78 +3850,78 @@
         <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>45023.66653935185</v>
+        <v>45023.49158564815</v>
       </c>
       <c r="B313" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>45023.66658564815</v>
+        <v>45023.66653935185</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>45023.68052083333</v>
+        <v>45023.66658564815</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>45023.78965277778</v>
+        <v>45023.68052083333</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>45026.3546412037</v>
+        <v>45023.78965277778</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>45026.35775462963</v>
+        <v>45026.3546412037</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>45026.35934027778</v>
+        <v>45026.35775462963</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
@@ -3929,40 +3932,40 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>45026.36069444445</v>
+        <v>45026.35934027778</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>45026.36158564815</v>
+        <v>45026.36069444445</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>45026.36201388889</v>
+        <v>45026.36158564815</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>45026.36298611111</v>
+        <v>45026.36201388889</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -3973,40 +3976,40 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>45026.36400462963</v>
+        <v>45026.36298611111</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>45026.36451388889</v>
+        <v>45026.36400462963</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>45026.36496527777</v>
+        <v>45026.36451388889</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>45026.56555555556</v>
+        <v>45026.36496527777</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4017,18 +4020,18 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>45026.56605324074</v>
+        <v>45026.56555555556</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>45026.56613425926</v>
+        <v>45026.56605324074</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -4039,13 +4042,24 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
+        <v>45026.56613425926</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
         <v>45026.5662037037</v>
       </c>
-      <c r="B330" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" t="s">
-        <v>7</v>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4077,10 +4091,10 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4088,10 +4102,10 @@
         <v>44937.60231181713</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4102,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4113,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4121,10 +4135,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4132,10 +4146,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4146,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4157,7 +4171,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4168,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4179,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4190,7 +4204,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4201,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4212,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4223,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4234,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4245,7 +4259,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4256,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4267,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4278,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4289,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4300,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4311,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4322,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4333,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4344,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4355,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4366,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4377,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4388,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4399,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4410,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4421,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4432,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4443,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4454,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4465,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4476,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4487,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4498,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4509,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4520,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4531,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/MASTER.xlsx
+++ b/src/MASTER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="13">
   <si>
     <t>Date_Time</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
-  </si>
-  <si>
-    <t>Case Assignment Undone @ 11:48:04 04-07-2023</t>
   </si>
   <si>
     <t>MIKE</t>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Agent Created</t>
+  </si>
+  <si>
+    <t>Ticket Assignment Undone @ 10:09:16 04-12-2023</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1210,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1298,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1320,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1474,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1518,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1529,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1540,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1573,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1650,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1672,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1716,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1782,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1815,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1837,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1925,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1936,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1947,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1958,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2288,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2332,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2387,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2398,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2508,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2530,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2563,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2585,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2651,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2805,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2816,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3168,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3850,78 +3850,78 @@
         <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>45023.49158564815</v>
+        <v>45023.66653935185</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>45023.66653935185</v>
+        <v>45023.66658564815</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>45023.66658564815</v>
+        <v>45023.68052083333</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>45023.68052083333</v>
+        <v>45023.78965277778</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>45023.78965277778</v>
+        <v>45026.3546412037</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>45026.3546412037</v>
+        <v>45026.35775462963</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>45026.35775462963</v>
+        <v>45026.35934027778</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
@@ -3932,40 +3932,40 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>45026.35934027778</v>
+        <v>45026.36069444445</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>45026.36069444445</v>
+        <v>45026.36158564815</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>45026.36158564815</v>
+        <v>45026.36201388889</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>45026.36201388889</v>
+        <v>45026.36298611111</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -3976,40 +3976,40 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>45026.36298611111</v>
+        <v>45026.36400462963</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>45026.36400462963</v>
+        <v>45026.36451388889</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>45026.36451388889</v>
+        <v>45026.36496527777</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>45026.36496527777</v>
+        <v>45026.56555555556</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4020,18 +4020,18 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>45026.56555555556</v>
+        <v>45026.56605324074</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>45026.56605324074</v>
+        <v>45026.56613425926</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>45026.56613425926</v>
+        <v>45026.5662037037</v>
       </c>
       <c r="B330" t="s">
         <v>3</v>
@@ -4053,12 +4053,177 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>45026.5662037037</v>
+        <v>45026.76300925926</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>45026.76304398148</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>45027.35863425926</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>45027.35903935185</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>45027.35961805555</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>45027.36034722222</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>45027.49993055555</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>45027.6531712963</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>45027.68135416666</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>45027.71579861111</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>45027.78827546296</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>45028.36015046296</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>45028.57873842592</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>45028.58416666667</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>45028.72715277778</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>45028.72756944445</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4069,7 +4234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4091,10 +4256,10 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4102,10 +4267,10 @@
         <v>44937.60231181713</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4116,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4127,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4135,10 +4300,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4146,10 +4311,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4160,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4171,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4182,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4193,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4204,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4215,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4226,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4237,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4248,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4259,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4270,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4281,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4292,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4303,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4314,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4325,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4336,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4347,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4358,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4369,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4380,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4391,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4402,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4413,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4424,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4435,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4446,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4457,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4468,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4479,7 +4644,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4490,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4501,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4512,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4523,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4534,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4545,7 +4710,84 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45026.62106481481</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45026.62112268519</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45027.73920138889</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45027.8709375</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45028.42324074074</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45028.50706018518</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45028.69530092592</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/MASTER.xlsx
+++ b/src/MASTER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="15">
   <si>
     <t>Date_Time</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
+  </si>
+  <si>
+    <t>Case Assignment Undone @ 13:28:23 04-13-2023</t>
   </si>
   <si>
     <t>MIKE</t>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>Ticket Assignment Undone @ 10:09:16 04-12-2023</t>
+  </si>
+  <si>
+    <t>Ticket Assignment Undone @ 13:28:25 04-13-2023</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C346"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -451,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -462,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -473,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -484,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -495,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -517,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -528,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -539,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -550,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -561,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -572,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -583,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -594,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -605,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -616,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -627,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -638,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -649,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -660,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -671,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -682,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -693,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -704,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -715,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -726,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -737,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -748,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -759,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -770,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -781,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -792,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -803,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -814,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -825,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -836,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -847,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -858,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -869,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -880,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -891,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -902,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -913,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -924,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -935,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -946,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -957,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -968,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -979,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -990,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1001,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1012,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1023,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1034,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1045,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1067,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1078,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1089,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1100,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1111,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1122,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1144,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1155,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1166,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1177,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1188,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1199,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1210,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1221,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1232,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1243,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1254,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1265,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1276,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1287,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1298,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1309,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1320,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1331,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1342,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1353,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1364,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1375,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1386,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1397,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1408,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1419,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1430,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1441,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1452,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1463,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1474,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1485,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1496,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1507,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1518,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1529,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1540,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1551,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1562,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1573,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1584,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1595,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1606,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1617,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1628,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1639,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1650,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1661,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1672,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1683,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1694,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1705,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1716,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1727,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1738,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1749,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1760,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1771,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1782,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1793,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1804,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1815,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1826,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1837,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1848,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1859,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1870,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1881,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1892,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1903,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1914,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1925,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1936,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1947,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1958,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1969,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1980,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1991,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2002,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2013,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2024,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2035,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2046,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2057,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2068,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2079,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2090,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2101,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2112,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2123,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2134,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2145,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2156,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2167,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2178,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2189,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2200,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2211,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2222,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2233,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2244,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2255,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2266,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2277,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2288,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2299,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2310,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2321,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2332,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2343,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2354,7 +2360,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2365,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2376,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2387,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2398,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2409,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2420,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2431,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2442,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2453,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2464,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2475,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2486,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2497,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2508,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2519,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2530,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2541,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2552,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2563,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2574,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2585,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2596,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2607,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2618,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2629,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2640,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2651,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2662,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2673,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2684,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2695,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2706,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2717,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2728,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2739,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2750,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2761,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2772,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2783,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2794,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2805,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2816,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2827,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2838,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2849,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2860,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2871,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2882,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2893,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2904,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2915,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2926,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2937,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2948,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2959,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2970,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2981,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2992,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3003,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3014,7 +3020,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3025,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3036,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3047,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3058,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3069,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3080,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3091,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3102,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3113,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3124,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3135,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3146,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3157,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3168,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3179,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3190,7 +3196,7 @@
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3201,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3212,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3223,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3234,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3245,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3256,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3267,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3278,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3289,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3300,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3311,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3322,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3333,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3344,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3355,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3366,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3377,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3388,7 +3394,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3399,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3410,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3421,7 +3427,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3432,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3443,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3454,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3465,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3476,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3487,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3498,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3509,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3520,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3531,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3542,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3553,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3564,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3575,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3586,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3597,7 +3603,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3608,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3619,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3630,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3641,7 +3647,7 @@
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3652,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3663,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3674,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3685,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3696,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3707,7 +3713,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3718,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3729,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3740,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3751,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3762,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3773,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3784,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3795,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3806,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3817,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3828,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3839,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3850,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3861,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3872,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3883,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3894,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3905,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3916,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3927,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3938,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3949,7 +3955,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3960,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3971,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3982,7 +3988,7 @@
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3993,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4004,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4015,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="C327" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4026,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4037,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4048,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="C330" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4059,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4070,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4081,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="C333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4092,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4103,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4114,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4125,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4136,7 +4142,7 @@
         <v>4</v>
       </c>
       <c r="C338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4147,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4158,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="C340" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4169,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="C341" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4180,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4191,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4202,7 +4208,7 @@
         <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4213,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4224,7 +4230,40 @@
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>45029.56127314815</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>45029.56163194445</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>45029.56170138889</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4256,10 +4295,10 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4267,10 +4306,10 @@
         <v>44937.60231181713</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4281,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4292,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4300,10 +4339,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4311,10 +4350,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4325,7 +4364,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4336,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4347,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4358,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4369,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4380,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4391,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4402,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4413,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4424,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4435,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4446,7 +4485,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4457,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4468,7 +4507,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4479,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4490,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4501,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4512,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4523,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4534,7 +4573,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4545,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4556,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4567,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4578,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4589,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4600,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4611,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4622,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4633,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4644,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4655,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4666,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4677,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4688,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4699,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4710,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4721,7 +4760,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4732,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4743,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4751,10 +4790,10 @@
         <v>45027.8709375</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4765,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4776,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4787,7 +4826,40 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45029.5612962963</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45029.56166666667</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45029.56168981481</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/MASTER.xlsx
+++ b/src/MASTER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="13">
   <si>
     <t>Date_Time</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
-  </si>
-  <si>
-    <t>Case Assignment Undone @ 13:28:23 04-13-2023</t>
   </si>
   <si>
     <t>MIKE</t>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Ticket Assignment Undone @ 10:09:16 04-12-2023</t>
-  </si>
-  <si>
-    <t>Ticket Assignment Undone @ 13:28:25 04-13-2023</t>
   </si>
 </sst>
 </file>
@@ -421,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -468,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -479,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -512,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -523,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -534,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -545,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -556,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -567,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -578,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -589,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -600,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -611,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -622,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -633,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -644,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -655,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -666,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -677,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -688,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -699,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -710,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -721,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -732,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -743,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -754,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -765,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -776,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -787,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -798,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -809,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -820,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -831,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -842,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -853,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -864,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -875,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -886,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -897,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -908,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -919,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -930,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -941,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -952,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -963,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -974,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -985,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -996,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1007,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1018,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1040,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1051,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1062,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1073,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1084,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1117,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1128,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1139,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1150,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1161,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1172,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1183,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1194,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1205,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1216,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1227,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1238,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1249,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1260,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1271,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1282,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1293,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1304,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1315,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1326,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1337,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1348,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1359,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1370,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1381,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1392,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1403,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1414,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1425,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1436,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1447,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1458,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1469,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1480,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1491,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1502,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1513,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1524,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1535,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1546,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1557,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1568,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1579,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1590,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1601,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1612,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1623,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1634,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1645,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1656,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1667,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1678,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1689,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1700,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1711,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1722,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1733,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1744,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1755,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1766,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1777,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1788,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1799,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1810,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1821,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1832,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1843,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1854,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1865,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1876,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1887,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1898,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1909,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1920,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1931,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1942,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1953,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1964,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1975,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1986,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1997,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2008,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2019,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2030,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2041,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2052,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2063,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2074,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2085,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2096,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2107,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2118,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2129,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2140,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2151,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2162,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2173,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2184,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2195,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2206,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2217,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2228,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2239,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2250,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2261,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2272,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2283,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2294,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2305,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2316,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2327,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2338,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2349,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2360,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2371,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2382,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2393,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2404,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2415,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2426,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2437,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2448,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2459,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2470,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2481,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2492,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2503,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2514,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2525,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2536,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2547,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2558,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2569,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2580,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2591,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2602,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2613,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2624,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2635,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2646,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2657,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2668,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2679,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2690,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2701,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2712,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2723,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2734,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2745,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2756,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2767,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2778,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2789,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2800,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2811,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2822,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2833,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2844,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2855,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2866,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2877,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2888,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2899,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2910,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2921,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2932,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2943,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2954,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2965,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2976,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2987,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2998,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3009,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3020,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3031,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3042,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3053,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3064,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3075,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3086,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3097,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3108,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3119,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3130,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3141,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3152,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3163,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3174,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3185,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3196,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3207,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3218,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3229,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3240,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3251,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3262,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3273,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3284,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3295,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3306,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3317,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3328,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3339,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3350,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3361,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3372,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3383,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3394,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3405,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3416,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3427,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3438,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3449,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3460,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3471,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3482,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3493,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3504,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3515,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3526,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3537,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3548,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3559,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3570,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3581,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3592,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3603,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3614,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3625,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3636,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3647,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3658,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="C294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3669,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3680,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3691,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3702,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3713,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3724,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3735,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3746,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3757,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3768,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3779,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3790,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3801,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3812,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3823,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3834,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3845,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3856,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3867,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3878,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3889,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3900,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3911,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3922,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3933,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3944,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3955,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3966,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3977,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3988,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3999,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4010,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4021,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4032,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4043,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4054,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="C330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4065,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4076,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4087,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="C333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4098,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4109,7 +4103,7 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4120,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4131,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4142,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="C338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4153,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4164,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="C340" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4175,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="C341" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4186,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4197,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4208,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4219,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4230,39 +4224,204 @@
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>45029.56127314815</v>
+        <v>45028.76116898148</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>45029.56163194445</v>
+        <v>45028.76511574074</v>
       </c>
       <c r="B348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>45029.56170138889</v>
+        <v>45029.35883101852</v>
       </c>
       <c r="B349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>45029.35979166667</v>
+      </c>
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>45029.36040509259</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>45029.36049768519</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>45029.36083333333</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>45029.3612037037</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>45029.73898148148</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>45029.7393287037</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>45030.35546296297</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>45030.3557175926</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>45030.35611111111</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>45030.35688657407</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>45030.35703703704</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>45030.3575462963</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>45030.35783564814</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>45030.40690972222</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4273,7 +4432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4295,10 +4454,10 @@
         <v>44937.60226997685</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4306,10 +4465,10 @@
         <v>44937.60231181713</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4320,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4331,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4339,10 +4498,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4350,10 +4509,10 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4364,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4375,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4386,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4397,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4408,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4419,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4430,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4441,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4452,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4463,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4474,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4485,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4496,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4507,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4518,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4529,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4540,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4551,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4562,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4573,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4584,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4595,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4606,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4617,7 +4776,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4628,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4639,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4650,7 +4809,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4661,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4672,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4683,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4694,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4705,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4716,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4727,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4738,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4749,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4760,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4771,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4782,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4790,10 +4949,10 @@
         <v>45027.8709375</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4804,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4815,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4826,40 +4985,18 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45029.5612962963</v>
+        <v>45029.7918287037</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>45029.56166666667</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>45029.56168981481</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
